--- a/Stats/2022_OnionFest_PairStats.xlsx
+++ b/Stats/2022_OnionFest_PairStats.xlsx
@@ -13,18 +13,20 @@
     <sheet name="GA" sheetId="4" r:id="rId4"/>
     <sheet name="BRK" sheetId="5" r:id="rId5"/>
     <sheet name="BRK%" sheetId="6" r:id="rId6"/>
-    <sheet name="BAA" sheetId="7" r:id="rId7"/>
-    <sheet name="HLD" sheetId="8" r:id="rId8"/>
-    <sheet name="HLD%" sheetId="9" r:id="rId9"/>
-    <sheet name="HAA" sheetId="10" r:id="rId10"/>
-    <sheet name="TAA" sheetId="11" r:id="rId11"/>
+    <sheet name="BRK%-AVG" sheetId="7" r:id="rId7"/>
+    <sheet name="BAA" sheetId="8" r:id="rId8"/>
+    <sheet name="HLD" sheetId="9" r:id="rId9"/>
+    <sheet name="HLD%" sheetId="10" r:id="rId10"/>
+    <sheet name="HLD%-AVG" sheetId="11" r:id="rId11"/>
+    <sheet name="HAA" sheetId="12" r:id="rId12"/>
+    <sheet name="TAA" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="20">
   <si>
     <t>Adam Parler</t>
   </si>
@@ -1889,64 +1891,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.768081494057725</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C2">
-        <v>-2.067317487266553</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2">
-        <v>-0.9171052631578946</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E2">
-        <v>0.6355263157894739</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="F2">
-        <v>-0.1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>-0.4086587436332767</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.9413412563667233</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
-        <v>-2.000764006791171</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J2">
-        <v>-0.0838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.2387096774193549</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>-0.4783955857385399</v>
+        <v>0.4375</v>
       </c>
       <c r="M2">
-        <v>-0.2060271646859083</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="N2">
-        <v>0.8413412563667233</v>
+        <v>0.5</v>
       </c>
       <c r="O2">
-        <v>-2.814685908319185</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="P2">
-        <v>0.3774193548387097</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q2">
-        <v>-1.57258064516129</v>
+        <v>0.4</v>
       </c>
       <c r="R2">
-        <v>-2.789473684210526</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S2">
-        <v>-2.414473684210526</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="T2">
-        <v>-3.342105263157895</v>
+        <v>0.25</v>
       </c>
       <c r="U2">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1954,61 +1956,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.067317487266553</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C3">
-        <v>-1.645925297113752</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3">
-        <v>-1.781239388794567</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E3">
-        <v>-0.906239388794567</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>-0.5949490662139217</v>
+        <v>0.6</v>
       </c>
       <c r="H3">
-        <v>0.04134125636672334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I3">
-        <v>1.010314091680815</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3">
-        <v>-1.083870967741936</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
-        <v>-0.3225806451612903</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>-0.2872665534804753</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>-0.6473684210526316</v>
+        <v>0.6</v>
       </c>
       <c r="N3">
-        <v>-0.1723684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>-0.1509762308998301</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="P3">
-        <v>-1.083870967741936</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
-        <v>-1.661290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>-0.3421052631578947</v>
+        <v>0.625</v>
       </c>
       <c r="S3">
-        <v>0.1776315789473685</v>
+        <v>0.75</v>
       </c>
       <c r="T3">
-        <v>-0.8947368421052631</v>
+        <v>0.5</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2019,64 +2021,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.9171052631578946</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C4">
-        <v>-1.781239388794567</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4">
-        <v>-0.4795840407470288</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E4">
-        <v>0.4901528013582344</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F4">
-        <v>-0.1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939728353140918</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H4">
-        <v>1.388709677419355</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I4">
-        <v>-0.442529711375212</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J4">
-        <v>-0.6612903225806451</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.2548387096774195</v>
+        <v>0.75</v>
       </c>
       <c r="L4">
-        <v>-0.9036078098471987</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1990237691001697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N4">
-        <v>1.732682512733447</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O4">
-        <v>-0.6923174872665534</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P4">
-        <v>0.9548387096774195</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
-        <v>-0.3060271646859082</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>-1.967105263157895</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S4">
-        <v>-0.9144736842105262</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T4">
-        <v>-0.6973684210526315</v>
+        <v>0.6</v>
       </c>
       <c r="U4">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2084,64 +2086,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6355263157894739</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>-0.906239388794567</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>0.4901528013582344</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E5">
-        <v>1.545415959252971</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="F5">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G5">
-        <v>0.7439728353140918</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H5">
-        <v>1.063709677419355</v>
+        <v>0.625</v>
       </c>
       <c r="I5">
-        <v>-0.3398981324278436</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>-0.7612903225806451</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3548387096774195</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>-0.5286078098471987</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.74902376910017</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N5">
-        <v>3.307682512733447</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>-0.5449490662139218</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P5">
-        <v>1.15483870967742</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
-        <v>1.641341256366723</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>-0.09210526315789469</v>
+        <v>0.7</v>
       </c>
       <c r="S5">
-        <v>0.3355263157894739</v>
+        <v>0.6</v>
       </c>
       <c r="T5">
-        <v>0.1776315789473685</v>
+        <v>0.75</v>
       </c>
       <c r="U5">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2149,49 +2151,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
-        <v>-0.2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
-        <v>-0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2214,64 +2216,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.4086587436332767</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>-0.5949490662139217</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>0.5939728353140918</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7">
-        <v>0.7439728353140918</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.387945670628184</v>
+        <v>0.65</v>
       </c>
       <c r="H7">
-        <v>-0.07500000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I7">
-        <v>0.1163412563667233</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="J7">
-        <v>-0.8612903225806452</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>-0.5086587436332767</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M7">
-        <v>0.9302631578947369</v>
+        <v>0.625</v>
       </c>
       <c r="N7">
-        <v>1.957894736842105</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="O7">
-        <v>0.2576825127334466</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="P7">
-        <v>-0.7612903225806451</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q7">
-        <v>1.068972835314092</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>2.710526315789474</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.302631578947369</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.355263157894737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2279,61 +2281,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9413412563667233</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>0.04134125636672334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D8">
-        <v>1.388709677419355</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E8">
-        <v>1.063709677419355</v>
+        <v>0.625</v>
       </c>
       <c r="F8">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>-0.07500000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H8">
-        <v>1.105050933786078</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I8">
-        <v>0.3050509337860782</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J8">
-        <v>0.2387096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K8">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.188709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.3887096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N8">
-        <v>1.263709677419355</v>
+        <v>0.8</v>
       </c>
       <c r="O8">
-        <v>-0.3836587436332767</v>
+        <v>0.375</v>
       </c>
       <c r="P8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>-0.3223684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2344,64 +2346,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.000764006791171</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C9">
-        <v>1.010314091680815</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9">
-        <v>-0.442529711375212</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E9">
-        <v>-0.3398981324278436</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G9">
-        <v>0.1163412563667233</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H9">
-        <v>0.3050509337860782</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I9">
-        <v>0.03433786078098544</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="J9">
-        <v>0.2387096774193549</v>
+        <v>0.75</v>
       </c>
       <c r="K9">
-        <v>0.6774193548387097</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.1379456706281836</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="M9">
-        <v>1.241129032258065</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N9">
-        <v>1.280050933786078</v>
+        <v>0.8</v>
       </c>
       <c r="O9">
-        <v>-0.5957130730050928</v>
+        <v>0.6</v>
       </c>
       <c r="P9">
-        <v>0.4774193548387097</v>
+        <v>0.6</v>
       </c>
       <c r="Q9">
-        <v>0.7137096774193549</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>-0.9144736842105259</v>
+        <v>0.6</v>
       </c>
       <c r="S9">
-        <v>-0.9144736842105261</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T9">
-        <v>-1.039473684210526</v>
+        <v>0.5</v>
       </c>
       <c r="U9">
-        <v>-0.1973684210526315</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2409,52 +2411,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>-1.083870967741936</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>-0.6612903225806451</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>-0.7612903225806451</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.8612903225806452</v>
+        <v>0.25</v>
       </c>
       <c r="H10">
-        <v>0.2387096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I10">
-        <v>0.2387096774193549</v>
+        <v>0.75</v>
       </c>
       <c r="J10">
-        <v>-0.8451612903225805</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
-        <v>-0.3225806451612903</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>-0.4225806451612902</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1387096774193549</v>
+        <v>0.6</v>
       </c>
       <c r="N10">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>-0.5225806451612902</v>
+        <v>0.25</v>
       </c>
       <c r="P10">
-        <v>-0.9838709677419355</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q10">
-        <v>-0.3225806451612903</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2474,52 +2476,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2387096774193549</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>-0.3225806451612903</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.2548387096774195</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>0.3548387096774195</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.6774193548387097</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>-0.3225806451612903</v>
+        <v>0.75</v>
       </c>
       <c r="K11">
-        <v>0.5935483870967746</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>-0.4225806451612902</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.9161290322580645</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N11">
-        <v>0.9161290322580645</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.2548387096774195</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q11">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2539,64 +2541,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4783955857385399</v>
+        <v>0.4375</v>
       </c>
       <c r="C12">
-        <v>-0.2872665534804753</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>-0.9036078098471987</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>-0.5286078098471987</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>-0.5086587436332767</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H12">
-        <v>1.188709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.1379456706281836</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="J12">
-        <v>-0.4225806451612902</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>-0.4225806451612902</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>-0.4070033955857382</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="M12">
-        <v>-0.4473684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="N12">
-        <v>0.6526315789473685</v>
+        <v>0.6</v>
       </c>
       <c r="O12">
-        <v>0.110314091680815</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="P12">
-        <v>0.1774193548387097</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q12">
-        <v>-0.375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R12">
-        <v>-0.2171052631578947</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S12">
-        <v>-0.09210526315789463</v>
+        <v>0.6</v>
       </c>
       <c r="T12">
-        <v>-0.2697368421052631</v>
+        <v>0.6</v>
       </c>
       <c r="U12">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2604,64 +2606,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2060271646859083</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>-0.6473684210526316</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
-        <v>0.1990237691001697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13">
-        <v>1.74902376910017</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F13">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
-        <v>0.9302631578947369</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
-        <v>0.3887096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I13">
-        <v>1.241129032258065</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J13">
-        <v>0.1387096774193549</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
-        <v>0.9161290322580645</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>-0.4473684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>1.090365025466893</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="N13">
-        <v>1.82402376910017</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O13">
-        <v>-0.3586587436332767</v>
+        <v>0.6</v>
       </c>
       <c r="P13">
-        <v>0.8161290322580645</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q13">
-        <v>0.2826825127334467</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R13">
-        <v>-0.2697368421052631</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S13">
-        <v>0.1578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T13">
-        <v>-0.625</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2669,64 +2671,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8413412563667233</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>-0.1723684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>1.732682512733447</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E14">
-        <v>3.307682512733447</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.957894736842105</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H14">
-        <v>1.263709677419355</v>
+        <v>0.8</v>
       </c>
       <c r="I14">
-        <v>1.280050933786078</v>
+        <v>0.8</v>
       </c>
       <c r="J14">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.9161290322580645</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L14">
-        <v>0.6526315789473685</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
-        <v>1.82402376910017</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N14">
-        <v>2.951655348047538</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="O14">
-        <v>0.755263157894737</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="P14">
-        <v>1.37741935483871</v>
+        <v>0.6</v>
       </c>
       <c r="Q14">
-        <v>0.1939728353140918</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R14">
-        <v>-0.3223684210526315</v>
+        <v>0.75</v>
       </c>
       <c r="S14">
-        <v>1.585526315789474</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T14">
-        <v>-0.375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U14">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2734,64 +2736,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.814685908319185</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C15">
-        <v>-0.1509762308998301</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D15">
-        <v>-0.6923174872665534</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15">
-        <v>-0.5449490662139218</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F15">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>0.2576825127334466</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H15">
-        <v>-0.3836587436332767</v>
+        <v>0.375</v>
       </c>
       <c r="I15">
-        <v>-0.5957130730050928</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
-        <v>-0.5225806451612902</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.110314091680815</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="M15">
-        <v>-0.3586587436332767</v>
+        <v>0.6</v>
       </c>
       <c r="N15">
-        <v>0.755263157894737</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="O15">
-        <v>-0.8517402376910019</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="P15">
-        <v>-0.5225806451612902</v>
+        <v>0.5</v>
       </c>
       <c r="Q15">
-        <v>0.5326825127334467</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>-0.6644736842105264</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S15">
-        <v>-0.1118421052631573</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T15">
-        <v>-0.1118421052631576</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="U15">
-        <v>0.3552631578947369</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2799,52 +2801,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3774193548387097</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>-1.083870967741936</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0.9548387096774195</v>
+        <v>0.6</v>
       </c>
       <c r="E16">
-        <v>1.15483870967742</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>-0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>-0.7612903225806451</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I16">
-        <v>0.4774193548387097</v>
+        <v>0.6</v>
       </c>
       <c r="J16">
-        <v>-0.9838709677419355</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.2548387096774195</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>0.1774193548387097</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M16">
-        <v>0.8161290322580645</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N16">
-        <v>1.37741935483871</v>
+        <v>0.6</v>
       </c>
       <c r="O16">
-        <v>-0.5225806451612902</v>
+        <v>0.5</v>
       </c>
       <c r="P16">
-        <v>0.532258064516129</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q16">
-        <v>0.0161290322580645</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2864,64 +2866,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.57258064516129</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>-1.661290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>-0.3060271646859082</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <v>1.641341256366723</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.068972835314092</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7137096774193549</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>-0.3225806451612903</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.3387096774193549</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>-0.375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2826825127334467</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N17">
-        <v>0.1939728353140918</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O17">
-        <v>0.5326825127334467</v>
+        <v>0.75</v>
       </c>
       <c r="P17">
-        <v>0.0161290322580645</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q17">
-        <v>0.2990237691001697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R17">
-        <v>-0.3223684210526316</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S17">
-        <v>0.4078947368421053</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T17">
-        <v>-0.1973684210526316</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U17">
-        <v>1.355263157894737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2929,28 +2931,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-2.789473684210526</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>-0.3421052631578947</v>
+        <v>0.625</v>
       </c>
       <c r="D18">
-        <v>-1.967105263157895</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18">
-        <v>-0.09210526315789469</v>
+        <v>0.7</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>0.5</v>
       </c>
-      <c r="H18">
-        <v>-0.3223684210526315</v>
-      </c>
       <c r="I18">
-        <v>-0.9144736842105259</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2959,31 +2961,31 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.2171052631578947</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>-0.2697368421052631</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N18">
-        <v>-0.3223684210526315</v>
+        <v>0.75</v>
       </c>
       <c r="O18">
-        <v>-0.6644736842105264</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>-0.3223684210526316</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R18">
-        <v>-1.684210526315789</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="S18">
-        <v>-1.717105263157894</v>
+        <v>0.5</v>
       </c>
       <c r="T18">
-        <v>-1.217105263157895</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2994,28 +2996,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.414473684210526</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C19">
-        <v>0.1776315789473685</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>-0.9144736842105262</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E19">
-        <v>0.3355263157894739</v>
+        <v>0.6</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.710526315789474</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.9144736842105261</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3024,34 +3026,34 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.09210526315789463</v>
+        <v>0.6</v>
       </c>
       <c r="M19">
-        <v>0.1578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N19">
-        <v>1.585526315789474</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O19">
-        <v>-0.1118421052631573</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.4078947368421053</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R19">
-        <v>-1.717105263157894</v>
+        <v>0.5</v>
       </c>
       <c r="S19">
-        <v>-0.2039473684210521</v>
+        <v>0.625</v>
       </c>
       <c r="T19">
-        <v>-1.342105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="U19">
-        <v>0.9078947368421053</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3059,28 +3061,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-3.342105263157895</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
-        <v>-0.8947368421052631</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
-        <v>-0.6973684210526315</v>
+        <v>0.6</v>
       </c>
       <c r="E20">
-        <v>0.1776315789473685</v>
+        <v>0.75</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.302631578947369</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>-1.039473684210526</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3089,34 +3091,34 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.2697368421052631</v>
+        <v>0.6</v>
       </c>
       <c r="M20">
-        <v>-0.625</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
-        <v>-0.375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O20">
-        <v>-0.1118421052631576</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-0.1973684210526316</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R20">
-        <v>-1.217105263157895</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="S20">
-        <v>-1.342105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="T20">
-        <v>-1.361842105263158</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U20">
-        <v>0.3552631578947369</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3124,28 +3126,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.355263157894737</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.1973684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3154,34 +3156,34 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.4473684210526315</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.3552631578947369</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.355263157894737</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.9078947368421053</v>
+        <v>0.75</v>
       </c>
       <c r="T21">
-        <v>0.3552631578947369</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U21">
-        <v>0.9078947368421053</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -3264,6 +3266,2756 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>-0.1415954415954416</v>
+      </c>
+      <c r="C2">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="D2">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="E2">
+        <v>0.06923076923076921</v>
+      </c>
+      <c r="F2">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="G2">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="H2">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="I2">
+        <v>-0.1945054945054945</v>
+      </c>
+      <c r="J2">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="K2">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="L2">
+        <v>-0.1855769230769231</v>
+      </c>
+      <c r="M2">
+        <v>-0.08461538461538465</v>
+      </c>
+      <c r="N2">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="O2">
+        <v>-0.2659340659340659</v>
+      </c>
+      <c r="P2">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="Q2">
+        <v>-0.2230769230769231</v>
+      </c>
+      <c r="R2">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="S2">
+        <v>-0.4564102564102565</v>
+      </c>
+      <c r="T2">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="U2">
+        <v>-0.6230769230769231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="C3">
+        <v>-0.03974358974358971</v>
+      </c>
+      <c r="D3">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="E3">
+        <v>0.01328671328671327</v>
+      </c>
+      <c r="F3">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="G3">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="H3">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="I3">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="J3">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="K3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="L3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M3">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="N3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="O3">
+        <v>-0.03974358974358971</v>
+      </c>
+      <c r="P3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="Q3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="R3">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="S3">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="T3">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="C4">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="D4">
+        <v>0.006552706552706566</v>
+      </c>
+      <c r="E4">
+        <v>-0.007692307692307665</v>
+      </c>
+      <c r="F4">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="G4">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="H4">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="I4">
+        <v>0.06923076923076921</v>
+      </c>
+      <c r="J4">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="K4">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="L4">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M4">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="N4">
+        <v>0.1041958041958042</v>
+      </c>
+      <c r="O4">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="P4">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="Q4">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="R4">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="S4">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="T4">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="U4">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.06923076923076921</v>
+      </c>
+      <c r="C5">
+        <v>0.01328671328671327</v>
+      </c>
+      <c r="D5">
+        <v>-0.007692307692307665</v>
+      </c>
+      <c r="E5">
+        <v>0.05549450549450552</v>
+      </c>
+      <c r="F5">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="G5">
+        <v>0.1041958041958042</v>
+      </c>
+      <c r="H5">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="I5">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="J5">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="K5">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="L5">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M5">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="N5">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="O5">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="P5">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="Q5">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="R5">
+        <v>0.07692307692307687</v>
+      </c>
+      <c r="S5">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="T5">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="U5">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="C6">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="D6">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="E6">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="F6">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="G6">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H6">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="I6">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L6">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M6">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="P6">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="C7">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="D7">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="E7">
+        <v>0.1041958041958042</v>
+      </c>
+      <c r="F7">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="G7">
+        <v>0.02692307692307694</v>
+      </c>
+      <c r="H7">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="I7">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="J7">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="K7">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L7">
+        <v>-0.4564102564102565</v>
+      </c>
+      <c r="M7">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="N7">
+        <v>0.1547008547008547</v>
+      </c>
+      <c r="O7">
+        <v>-0.08461538461538465</v>
+      </c>
+      <c r="P7">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="Q7">
+        <v>0.2102564102564103</v>
+      </c>
+      <c r="R7">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="S7">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="T7">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="U7">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="C8">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="D8">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="E8">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="F8">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="G8">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="H8">
+        <v>0.01978021978021982</v>
+      </c>
+      <c r="I8">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="J8">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="K8">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L8">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M8">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="N8">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="O8">
+        <v>-0.2480769230769231</v>
+      </c>
+      <c r="P8">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.1945054945054945</v>
+      </c>
+      <c r="C9">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="D9">
+        <v>0.06923076923076921</v>
+      </c>
+      <c r="E9">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="F9">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="G9">
+        <v>-0.07762237762237767</v>
+      </c>
+      <c r="H9">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="I9">
+        <v>0.01328671328671327</v>
+      </c>
+      <c r="J9">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="K9">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L9">
+        <v>-0.04412955465587043</v>
+      </c>
+      <c r="M9">
+        <v>0.141628959276018</v>
+      </c>
+      <c r="N9">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="O9">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="P9">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="Q9">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="R9">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="S9">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="T9">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="U9">
+        <v>-0.1230769230769231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="C10">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="D10">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="E10">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="H10">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="I10">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="J10">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="K10">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="L10">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M10">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="N10">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="O10">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="P10">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="Q10">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="C11">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D11">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="E11">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="F11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="G11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="I11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="J11">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="K11">
+        <v>0.1951048951048951</v>
+      </c>
+      <c r="L11">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="M11">
+        <v>0.2658119658119658</v>
+      </c>
+      <c r="N11">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="O11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="P11">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="Q11">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.1855769230769231</v>
+      </c>
+      <c r="C12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="E12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="F12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="G12">
+        <v>-0.4564102564102565</v>
+      </c>
+      <c r="H12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="I12">
+        <v>-0.04412955465587043</v>
+      </c>
+      <c r="J12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="K12">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="L12">
+        <v>-0.1058355437665782</v>
+      </c>
+      <c r="M12">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="N12">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="O12">
+        <v>-0.09366515837104072</v>
+      </c>
+      <c r="P12">
+        <v>-0.3373626373626374</v>
+      </c>
+      <c r="Q12">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="R12">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="S12">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="T12">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="U12">
+        <v>-0.6230769230769231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.08461538461538465</v>
+      </c>
+      <c r="C13">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="D13">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="E13">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="F13">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="G13">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="H13">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="I13">
+        <v>0.141628959276018</v>
+      </c>
+      <c r="J13">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="K13">
+        <v>0.2658119658119658</v>
+      </c>
+      <c r="L13">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="M13">
+        <v>0.05549450549450552</v>
+      </c>
+      <c r="N13">
+        <v>0.2102564102564103</v>
+      </c>
+      <c r="O13">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="P13">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="Q13">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="R13">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="S13">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="T13">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="U13">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="C14">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D14">
+        <v>0.1041958041958042</v>
+      </c>
+      <c r="E14">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.1547008547008547</v>
+      </c>
+      <c r="H14">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="I14">
+        <v>0.176923076923077</v>
+      </c>
+      <c r="J14">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="K14">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="L14">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="M14">
+        <v>0.2102564102564103</v>
+      </c>
+      <c r="N14">
+        <v>0.1388278388278388</v>
+      </c>
+      <c r="O14">
+        <v>0.1547008547008547</v>
+      </c>
+      <c r="P14">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="Q14">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="R14">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="S14">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="T14">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="U14">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.2659340659340659</v>
+      </c>
+      <c r="C15">
+        <v>-0.03974358974358971</v>
+      </c>
+      <c r="D15">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="E15">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="F15">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="G15">
+        <v>-0.08461538461538465</v>
+      </c>
+      <c r="H15">
+        <v>-0.2480769230769231</v>
+      </c>
+      <c r="I15">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="J15">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="K15">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L15">
+        <v>-0.09366515837104072</v>
+      </c>
+      <c r="M15">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="N15">
+        <v>0.1547008547008547</v>
+      </c>
+      <c r="O15">
+        <v>-0.03484162895927601</v>
+      </c>
+      <c r="P15">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="Q15">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="R15">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="S15">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="T15">
+        <v>0.01328671328671327</v>
+      </c>
+      <c r="U15">
+        <v>0.04358974358974355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="C16">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D16">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="E16">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="F16">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="G16">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="H16">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="I16">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="J16">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="K16">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="L16">
+        <v>-0.3373626373626374</v>
+      </c>
+      <c r="M16">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="N16">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="O16">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="P16">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="Q16">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.2230769230769231</v>
+      </c>
+      <c r="C17">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D17">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="E17">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.2102564102564103</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="J17">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="K17">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="L17">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="M17">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="N17">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="O17">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="P17">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="Q17">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="R17">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="S17">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="T17">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="U17">
+        <v>0.3769230769230769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="C18">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="D18">
+        <v>-0.2897435897435898</v>
+      </c>
+      <c r="E18">
+        <v>0.07692307692307687</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H18">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="I18">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="M18">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="N18">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="O18">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="R18">
+        <v>-0.01196581196581192</v>
+      </c>
+      <c r="S18">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="T18">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.4564102564102565</v>
+      </c>
+      <c r="C19">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="D19">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="E19">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="M19">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="N19">
+        <v>0.234065934065934</v>
+      </c>
+      <c r="O19">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.09120879120879122</v>
+      </c>
+      <c r="R19">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="S19">
+        <v>0.001923076923076916</v>
+      </c>
+      <c r="T19">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="U19">
+        <v>0.1269230769230769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.3730769230769231</v>
+      </c>
+      <c r="C20">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="D20">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="E20">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H20">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="I20">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>-0.02307692307692311</v>
+      </c>
+      <c r="M20">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="N20">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="O20">
+        <v>0.01328671328671327</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="R20">
+        <v>-0.0675213675213675</v>
+      </c>
+      <c r="S20">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="T20">
+        <v>-0.05164835164835169</v>
+      </c>
+      <c r="U20">
+        <v>0.04358974358974355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="E21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-0.1230769230769231</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-0.6230769230769231</v>
+      </c>
+      <c r="M21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="N21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="O21">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.3769230769230769</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="T21">
+        <v>0.04358974358974355</v>
+      </c>
+      <c r="U21">
+        <v>0.1269230769230769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-2.768081494057725</v>
+      </c>
+      <c r="C2">
+        <v>-2.067317487266553</v>
+      </c>
+      <c r="D2">
+        <v>-0.9171052631578946</v>
+      </c>
+      <c r="E2">
+        <v>0.6355263157894739</v>
+      </c>
+      <c r="F2">
+        <v>-0.1</v>
+      </c>
+      <c r="G2">
+        <v>-0.4086587436332767</v>
+      </c>
+      <c r="H2">
+        <v>0.9413412563667233</v>
+      </c>
+      <c r="I2">
+        <v>-2.000764006791171</v>
+      </c>
+      <c r="J2">
+        <v>-0.0838709677419355</v>
+      </c>
+      <c r="K2">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="L2">
+        <v>-0.4783955857385399</v>
+      </c>
+      <c r="M2">
+        <v>-0.2060271646859083</v>
+      </c>
+      <c r="N2">
+        <v>0.8413412563667233</v>
+      </c>
+      <c r="O2">
+        <v>-2.814685908319185</v>
+      </c>
+      <c r="P2">
+        <v>0.3774193548387097</v>
+      </c>
+      <c r="Q2">
+        <v>-1.57258064516129</v>
+      </c>
+      <c r="R2">
+        <v>-2.789473684210526</v>
+      </c>
+      <c r="S2">
+        <v>-2.414473684210526</v>
+      </c>
+      <c r="T2">
+        <v>-3.342105263157895</v>
+      </c>
+      <c r="U2">
+        <v>-0.4473684210526315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-2.067317487266553</v>
+      </c>
+      <c r="C3">
+        <v>-1.645925297113752</v>
+      </c>
+      <c r="D3">
+        <v>-1.781239388794567</v>
+      </c>
+      <c r="E3">
+        <v>-0.906239388794567</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-0.5949490662139217</v>
+      </c>
+      <c r="H3">
+        <v>0.04134125636672334</v>
+      </c>
+      <c r="I3">
+        <v>1.010314091680815</v>
+      </c>
+      <c r="J3">
+        <v>-1.083870967741936</v>
+      </c>
+      <c r="K3">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="L3">
+        <v>-0.2872665534804753</v>
+      </c>
+      <c r="M3">
+        <v>-0.6473684210526316</v>
+      </c>
+      <c r="N3">
+        <v>-0.1723684210526315</v>
+      </c>
+      <c r="O3">
+        <v>-0.1509762308998301</v>
+      </c>
+      <c r="P3">
+        <v>-1.083870967741936</v>
+      </c>
+      <c r="Q3">
+        <v>-1.661290322580645</v>
+      </c>
+      <c r="R3">
+        <v>-0.3421052631578947</v>
+      </c>
+      <c r="S3">
+        <v>0.1776315789473685</v>
+      </c>
+      <c r="T3">
+        <v>-0.8947368421052631</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.9171052631578946</v>
+      </c>
+      <c r="C4">
+        <v>-1.781239388794567</v>
+      </c>
+      <c r="D4">
+        <v>-0.4795840407470288</v>
+      </c>
+      <c r="E4">
+        <v>0.4901528013582344</v>
+      </c>
+      <c r="F4">
+        <v>-0.1</v>
+      </c>
+      <c r="G4">
+        <v>0.5939728353140918</v>
+      </c>
+      <c r="H4">
+        <v>1.388709677419355</v>
+      </c>
+      <c r="I4">
+        <v>-0.442529711375212</v>
+      </c>
+      <c r="J4">
+        <v>-0.6612903225806451</v>
+      </c>
+      <c r="K4">
+        <v>0.2548387096774195</v>
+      </c>
+      <c r="L4">
+        <v>-0.9036078098471987</v>
+      </c>
+      <c r="M4">
+        <v>0.1990237691001697</v>
+      </c>
+      <c r="N4">
+        <v>1.732682512733447</v>
+      </c>
+      <c r="O4">
+        <v>-0.6923174872665534</v>
+      </c>
+      <c r="P4">
+        <v>0.9548387096774195</v>
+      </c>
+      <c r="Q4">
+        <v>-0.3060271646859082</v>
+      </c>
+      <c r="R4">
+        <v>-1.967105263157895</v>
+      </c>
+      <c r="S4">
+        <v>-0.9144736842105262</v>
+      </c>
+      <c r="T4">
+        <v>-0.6973684210526315</v>
+      </c>
+      <c r="U4">
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6355263157894739</v>
+      </c>
+      <c r="C5">
+        <v>-0.906239388794567</v>
+      </c>
+      <c r="D5">
+        <v>0.4901528013582344</v>
+      </c>
+      <c r="E5">
+        <v>1.545415959252971</v>
+      </c>
+      <c r="F5">
+        <v>-0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.7439728353140918</v>
+      </c>
+      <c r="H5">
+        <v>1.063709677419355</v>
+      </c>
+      <c r="I5">
+        <v>-0.3398981324278436</v>
+      </c>
+      <c r="J5">
+        <v>-0.7612903225806451</v>
+      </c>
+      <c r="K5">
+        <v>0.3548387096774195</v>
+      </c>
+      <c r="L5">
+        <v>-0.5286078098471987</v>
+      </c>
+      <c r="M5">
+        <v>1.74902376910017</v>
+      </c>
+      <c r="N5">
+        <v>3.307682512733447</v>
+      </c>
+      <c r="O5">
+        <v>-0.5449490662139218</v>
+      </c>
+      <c r="P5">
+        <v>1.15483870967742</v>
+      </c>
+      <c r="Q5">
+        <v>1.641341256366723</v>
+      </c>
+      <c r="R5">
+        <v>-0.09210526315789469</v>
+      </c>
+      <c r="S5">
+        <v>0.3355263157894739</v>
+      </c>
+      <c r="T5">
+        <v>0.1776315789473685</v>
+      </c>
+      <c r="U5">
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-0.1</v>
+      </c>
+      <c r="E6">
+        <v>-0.1</v>
+      </c>
+      <c r="F6">
+        <v>-0.2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.1</v>
+      </c>
+      <c r="I6">
+        <v>-0.1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-0.2</v>
+      </c>
+      <c r="M6">
+        <v>-0.1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-0.2</v>
+      </c>
+      <c r="P6">
+        <v>-0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.4086587436332767</v>
+      </c>
+      <c r="C7">
+        <v>-0.5949490662139217</v>
+      </c>
+      <c r="D7">
+        <v>0.5939728353140918</v>
+      </c>
+      <c r="E7">
+        <v>0.7439728353140918</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.387945670628184</v>
+      </c>
+      <c r="H7">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1163412563667233</v>
+      </c>
+      <c r="J7">
+        <v>-0.8612903225806452</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-0.5086587436332767</v>
+      </c>
+      <c r="M7">
+        <v>0.9302631578947369</v>
+      </c>
+      <c r="N7">
+        <v>1.957894736842105</v>
+      </c>
+      <c r="O7">
+        <v>0.2576825127334466</v>
+      </c>
+      <c r="P7">
+        <v>-0.7612903225806451</v>
+      </c>
+      <c r="Q7">
+        <v>1.068972835314092</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>2.710526315789474</v>
+      </c>
+      <c r="T7">
+        <v>1.302631578947369</v>
+      </c>
+      <c r="U7">
+        <v>1.355263157894737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.9413412563667233</v>
+      </c>
+      <c r="C8">
+        <v>0.04134125636672334</v>
+      </c>
+      <c r="D8">
+        <v>1.388709677419355</v>
+      </c>
+      <c r="E8">
+        <v>1.063709677419355</v>
+      </c>
+      <c r="F8">
+        <v>-0.1</v>
+      </c>
+      <c r="G8">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.105050933786078</v>
+      </c>
+      <c r="I8">
+        <v>0.3050509337860782</v>
+      </c>
+      <c r="J8">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="K8">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="L8">
+        <v>1.188709677419355</v>
+      </c>
+      <c r="M8">
+        <v>0.3887096774193549</v>
+      </c>
+      <c r="N8">
+        <v>1.263709677419355</v>
+      </c>
+      <c r="O8">
+        <v>-0.3836587436332767</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-0.3223684210526315</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-2.000764006791171</v>
+      </c>
+      <c r="C9">
+        <v>1.010314091680815</v>
+      </c>
+      <c r="D9">
+        <v>-0.442529711375212</v>
+      </c>
+      <c r="E9">
+        <v>-0.3398981324278436</v>
+      </c>
+      <c r="F9">
+        <v>-0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.1163412563667233</v>
+      </c>
+      <c r="H9">
+        <v>0.3050509337860782</v>
+      </c>
+      <c r="I9">
+        <v>0.03433786078098544</v>
+      </c>
+      <c r="J9">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="K9">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="L9">
+        <v>0.1379456706281836</v>
+      </c>
+      <c r="M9">
+        <v>1.241129032258065</v>
+      </c>
+      <c r="N9">
+        <v>1.280050933786078</v>
+      </c>
+      <c r="O9">
+        <v>-0.5957130730050928</v>
+      </c>
+      <c r="P9">
+        <v>0.4774193548387097</v>
+      </c>
+      <c r="Q9">
+        <v>0.7137096774193549</v>
+      </c>
+      <c r="R9">
+        <v>-0.9144736842105259</v>
+      </c>
+      <c r="S9">
+        <v>-0.9144736842105261</v>
+      </c>
+      <c r="T9">
+        <v>-1.039473684210526</v>
+      </c>
+      <c r="U9">
+        <v>-0.1973684210526315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.0838709677419355</v>
+      </c>
+      <c r="C10">
+        <v>-1.083870967741936</v>
+      </c>
+      <c r="D10">
+        <v>-0.6612903225806451</v>
+      </c>
+      <c r="E10">
+        <v>-0.7612903225806451</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-0.8612903225806452</v>
+      </c>
+      <c r="H10">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="I10">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="J10">
+        <v>-0.8451612903225805</v>
+      </c>
+      <c r="K10">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="L10">
+        <v>-0.4225806451612902</v>
+      </c>
+      <c r="M10">
+        <v>0.1387096774193549</v>
+      </c>
+      <c r="N10">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="O10">
+        <v>-0.5225806451612902</v>
+      </c>
+      <c r="P10">
+        <v>-0.9838709677419355</v>
+      </c>
+      <c r="Q10">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="C11">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="D11">
+        <v>0.2548387096774195</v>
+      </c>
+      <c r="E11">
+        <v>0.3548387096774195</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="I11">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="J11">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="K11">
+        <v>0.5935483870967746</v>
+      </c>
+      <c r="L11">
+        <v>-0.4225806451612902</v>
+      </c>
+      <c r="M11">
+        <v>0.9161290322580645</v>
+      </c>
+      <c r="N11">
+        <v>0.9161290322580645</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.2548387096774195</v>
+      </c>
+      <c r="Q11">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.4783955857385399</v>
+      </c>
+      <c r="C12">
+        <v>-0.2872665534804753</v>
+      </c>
+      <c r="D12">
+        <v>-0.9036078098471987</v>
+      </c>
+      <c r="E12">
+        <v>-0.5286078098471987</v>
+      </c>
+      <c r="F12">
+        <v>-0.2</v>
+      </c>
+      <c r="G12">
+        <v>-0.5086587436332767</v>
+      </c>
+      <c r="H12">
+        <v>1.188709677419355</v>
+      </c>
+      <c r="I12">
+        <v>0.1379456706281836</v>
+      </c>
+      <c r="J12">
+        <v>-0.4225806451612902</v>
+      </c>
+      <c r="K12">
+        <v>-0.4225806451612902</v>
+      </c>
+      <c r="L12">
+        <v>-0.4070033955857382</v>
+      </c>
+      <c r="M12">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="N12">
+        <v>0.6526315789473685</v>
+      </c>
+      <c r="O12">
+        <v>0.110314091680815</v>
+      </c>
+      <c r="P12">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="Q12">
+        <v>-0.375</v>
+      </c>
+      <c r="R12">
+        <v>-0.2171052631578947</v>
+      </c>
+      <c r="S12">
+        <v>-0.09210526315789463</v>
+      </c>
+      <c r="T12">
+        <v>-0.2697368421052631</v>
+      </c>
+      <c r="U12">
+        <v>-0.4473684210526315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.2060271646859083</v>
+      </c>
+      <c r="C13">
+        <v>-0.6473684210526316</v>
+      </c>
+      <c r="D13">
+        <v>0.1990237691001697</v>
+      </c>
+      <c r="E13">
+        <v>1.74902376910017</v>
+      </c>
+      <c r="F13">
+        <v>-0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.9302631578947369</v>
+      </c>
+      <c r="H13">
+        <v>0.3887096774193549</v>
+      </c>
+      <c r="I13">
+        <v>1.241129032258065</v>
+      </c>
+      <c r="J13">
+        <v>0.1387096774193549</v>
+      </c>
+      <c r="K13">
+        <v>0.9161290322580645</v>
+      </c>
+      <c r="L13">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="M13">
+        <v>1.090365025466893</v>
+      </c>
+      <c r="N13">
+        <v>1.82402376910017</v>
+      </c>
+      <c r="O13">
+        <v>-0.3586587436332767</v>
+      </c>
+      <c r="P13">
+        <v>0.8161290322580645</v>
+      </c>
+      <c r="Q13">
+        <v>0.2826825127334467</v>
+      </c>
+      <c r="R13">
+        <v>-0.2697368421052631</v>
+      </c>
+      <c r="S13">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="T13">
+        <v>-0.625</v>
+      </c>
+      <c r="U13">
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.8413412563667233</v>
+      </c>
+      <c r="C14">
+        <v>-0.1723684210526315</v>
+      </c>
+      <c r="D14">
+        <v>1.732682512733447</v>
+      </c>
+      <c r="E14">
+        <v>3.307682512733447</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.957894736842105</v>
+      </c>
+      <c r="H14">
+        <v>1.263709677419355</v>
+      </c>
+      <c r="I14">
+        <v>1.280050933786078</v>
+      </c>
+      <c r="J14">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="K14">
+        <v>0.9161290322580645</v>
+      </c>
+      <c r="L14">
+        <v>0.6526315789473685</v>
+      </c>
+      <c r="M14">
+        <v>1.82402376910017</v>
+      </c>
+      <c r="N14">
+        <v>2.951655348047538</v>
+      </c>
+      <c r="O14">
+        <v>0.755263157894737</v>
+      </c>
+      <c r="P14">
+        <v>1.37741935483871</v>
+      </c>
+      <c r="Q14">
+        <v>0.1939728353140918</v>
+      </c>
+      <c r="R14">
+        <v>-0.3223684210526315</v>
+      </c>
+      <c r="S14">
+        <v>1.585526315789474</v>
+      </c>
+      <c r="T14">
+        <v>-0.375</v>
+      </c>
+      <c r="U14">
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-2.814685908319185</v>
+      </c>
+      <c r="C15">
+        <v>-0.1509762308998301</v>
+      </c>
+      <c r="D15">
+        <v>-0.6923174872665534</v>
+      </c>
+      <c r="E15">
+        <v>-0.5449490662139218</v>
+      </c>
+      <c r="F15">
+        <v>-0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.2576825127334466</v>
+      </c>
+      <c r="H15">
+        <v>-0.3836587436332767</v>
+      </c>
+      <c r="I15">
+        <v>-0.5957130730050928</v>
+      </c>
+      <c r="J15">
+        <v>-0.5225806451612902</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.110314091680815</v>
+      </c>
+      <c r="M15">
+        <v>-0.3586587436332767</v>
+      </c>
+      <c r="N15">
+        <v>0.755263157894737</v>
+      </c>
+      <c r="O15">
+        <v>-0.8517402376910019</v>
+      </c>
+      <c r="P15">
+        <v>-0.5225806451612902</v>
+      </c>
+      <c r="Q15">
+        <v>0.5326825127334467</v>
+      </c>
+      <c r="R15">
+        <v>-0.6644736842105264</v>
+      </c>
+      <c r="S15">
+        <v>-0.1118421052631573</v>
+      </c>
+      <c r="T15">
+        <v>-0.1118421052631576</v>
+      </c>
+      <c r="U15">
+        <v>0.3552631578947369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.3774193548387097</v>
+      </c>
+      <c r="C16">
+        <v>-1.083870967741936</v>
+      </c>
+      <c r="D16">
+        <v>0.9548387096774195</v>
+      </c>
+      <c r="E16">
+        <v>1.15483870967742</v>
+      </c>
+      <c r="F16">
+        <v>-0.2</v>
+      </c>
+      <c r="G16">
+        <v>-0.7612903225806451</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>0.4774193548387097</v>
+      </c>
+      <c r="J16">
+        <v>-0.9838709677419355</v>
+      </c>
+      <c r="K16">
+        <v>0.2548387096774195</v>
+      </c>
+      <c r="L16">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="M16">
+        <v>0.8161290322580645</v>
+      </c>
+      <c r="N16">
+        <v>1.37741935483871</v>
+      </c>
+      <c r="O16">
+        <v>-0.5225806451612902</v>
+      </c>
+      <c r="P16">
+        <v>0.532258064516129</v>
+      </c>
+      <c r="Q16">
+        <v>0.0161290322580645</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-1.57258064516129</v>
+      </c>
+      <c r="C17">
+        <v>-1.661290322580645</v>
+      </c>
+      <c r="D17">
+        <v>-0.3060271646859082</v>
+      </c>
+      <c r="E17">
+        <v>1.641341256366723</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.068972835314092</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.7137096774193549</v>
+      </c>
+      <c r="J17">
+        <v>-0.3225806451612903</v>
+      </c>
+      <c r="K17">
+        <v>0.3387096774193549</v>
+      </c>
+      <c r="L17">
+        <v>-0.375</v>
+      </c>
+      <c r="M17">
+        <v>0.2826825127334467</v>
+      </c>
+      <c r="N17">
+        <v>0.1939728353140918</v>
+      </c>
+      <c r="O17">
+        <v>0.5326825127334467</v>
+      </c>
+      <c r="P17">
+        <v>0.0161290322580645</v>
+      </c>
+      <c r="Q17">
+        <v>0.2990237691001697</v>
+      </c>
+      <c r="R17">
+        <v>-0.3223684210526316</v>
+      </c>
+      <c r="S17">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="T17">
+        <v>-0.1973684210526316</v>
+      </c>
+      <c r="U17">
+        <v>1.355263157894737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-2.789473684210526</v>
+      </c>
+      <c r="C18">
+        <v>-0.3421052631578947</v>
+      </c>
+      <c r="D18">
+        <v>-1.967105263157895</v>
+      </c>
+      <c r="E18">
+        <v>-0.09210526315789469</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>-0.3223684210526315</v>
+      </c>
+      <c r="I18">
+        <v>-0.9144736842105259</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>-0.2171052631578947</v>
+      </c>
+      <c r="M18">
+        <v>-0.2697368421052631</v>
+      </c>
+      <c r="N18">
+        <v>-0.3223684210526315</v>
+      </c>
+      <c r="O18">
+        <v>-0.6644736842105264</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-0.3223684210526316</v>
+      </c>
+      <c r="R18">
+        <v>-1.684210526315789</v>
+      </c>
+      <c r="S18">
+        <v>-1.717105263157894</v>
+      </c>
+      <c r="T18">
+        <v>-1.217105263157895</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-2.414473684210526</v>
+      </c>
+      <c r="C19">
+        <v>0.1776315789473685</v>
+      </c>
+      <c r="D19">
+        <v>-0.9144736842105262</v>
+      </c>
+      <c r="E19">
+        <v>0.3355263157894739</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.710526315789474</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-0.9144736842105261</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-0.09210526315789463</v>
+      </c>
+      <c r="M19">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="N19">
+        <v>1.585526315789474</v>
+      </c>
+      <c r="O19">
+        <v>-0.1118421052631573</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="R19">
+        <v>-1.717105263157894</v>
+      </c>
+      <c r="S19">
+        <v>-0.2039473684210521</v>
+      </c>
+      <c r="T19">
+        <v>-1.342105263157895</v>
+      </c>
+      <c r="U19">
+        <v>0.9078947368421053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-3.342105263157895</v>
+      </c>
+      <c r="C20">
+        <v>-0.8947368421052631</v>
+      </c>
+      <c r="D20">
+        <v>-0.6973684210526315</v>
+      </c>
+      <c r="E20">
+        <v>0.1776315789473685</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.302631578947369</v>
+      </c>
+      <c r="H20">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="I20">
+        <v>-1.039473684210526</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>-0.2697368421052631</v>
+      </c>
+      <c r="M20">
+        <v>-0.625</v>
+      </c>
+      <c r="N20">
+        <v>-0.375</v>
+      </c>
+      <c r="O20">
+        <v>-0.1118421052631576</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>-0.1973684210526316</v>
+      </c>
+      <c r="R20">
+        <v>-1.217105263157895</v>
+      </c>
+      <c r="S20">
+        <v>-1.342105263157895</v>
+      </c>
+      <c r="T20">
+        <v>-1.361842105263158</v>
+      </c>
+      <c r="U20">
+        <v>0.3552631578947369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="E21">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.355263157894737</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-0.1973684210526315</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-0.4473684210526315</v>
+      </c>
+      <c r="M21">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="N21">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="O21">
+        <v>0.3552631578947369</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.355263157894737</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9078947368421053</v>
+      </c>
+      <c r="T21">
+        <v>0.3552631578947369</v>
+      </c>
+      <c r="U21">
+        <v>0.9078947368421053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-5.18818638916262</v>
       </c>
       <c r="C2">
@@ -11514,64 +14266,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.420104895104895</v>
+        <v>-0.07285546415981198</v>
       </c>
       <c r="C2">
-        <v>-1.196561771561772</v>
+        <v>-0.06649616368286448</v>
       </c>
       <c r="D2">
-        <v>-0.7664918414918418</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="E2">
-        <v>-0.6677738927738931</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="F2">
-        <v>0.128205128205128</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="G2">
-        <v>-2.465268065268065</v>
+        <v>-0.1705685618729097</v>
       </c>
       <c r="H2">
-        <v>-1.312470862470863</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="I2">
-        <v>-1.850524475524475</v>
+        <v>-0.2474916387959866</v>
       </c>
       <c r="J2">
-        <v>0.2797202797202798</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K2">
-        <v>0.04895104895104907</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="L2">
-        <v>-1.203088578088578</v>
+        <v>-0.01672240802675584</v>
       </c>
       <c r="M2">
-        <v>1.352738927738928</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="N2">
-        <v>0.011072261072261</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="O2">
-        <v>-2.173543123543124</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="P2">
-        <v>0.287878787878788</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Q2">
-        <v>-0.3184731934731935</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="R2">
-        <v>-0.07500000000000029</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="S2">
-        <v>-1.575</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="T2">
-        <v>-1.375</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="U2">
-        <v>-1.65</v>
+        <v>-0.3532608695652174</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -11579,64 +14331,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.196561771561772</v>
+        <v>-0.06649616368286448</v>
       </c>
       <c r="C3">
-        <v>1.074825174825174</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="D3">
-        <v>-2.254370629370629</v>
+        <v>-0.1705685618729097</v>
       </c>
       <c r="E3">
-        <v>-0.381934731934732</v>
+        <v>-0.1211180124223603</v>
       </c>
       <c r="F3">
-        <v>0.01282051282051261</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="G3">
-        <v>-0.2677738927738929</v>
+        <v>-0.01159420289855073</v>
       </c>
       <c r="H3">
-        <v>-0.7245920745920746</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="I3">
-        <v>1.252214452214452</v>
+        <v>0.1099744245524297</v>
       </c>
       <c r="J3">
-        <v>0.6433566433566433</v>
+        <v>0.06719367588932801</v>
       </c>
       <c r="K3">
-        <v>-1.083916083916084</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="L3">
-        <v>-0.8056526806526808</v>
+        <v>-0.09364548494983277</v>
       </c>
       <c r="M3">
-        <v>2.484790209790209</v>
+        <v>0.1328502415458938</v>
       </c>
       <c r="N3">
-        <v>1.160314685314686</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="O3">
-        <v>1.919638694638695</v>
+        <v>0.1328502415458938</v>
       </c>
       <c r="P3">
-        <v>1.287878787878788</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="Q3">
-        <v>1.502738927738927</v>
+        <v>0.1581027667984189</v>
       </c>
       <c r="R3">
-        <v>1.675</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="S3">
-        <v>0.7250000000000001</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="T3">
-        <v>-0.3250000000000002</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="U3">
-        <v>0.825</v>
+        <v>-0.07826086956521738</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -11644,64 +14396,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.7664918414918418</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="C4">
-        <v>-2.254370629370629</v>
+        <v>-0.1705685618729097</v>
       </c>
       <c r="D4">
-        <v>-1.006177156177156</v>
+        <v>-0.009510869565217406</v>
       </c>
       <c r="E4">
-        <v>1.31486013986014</v>
+        <v>0.05507246376811592</v>
       </c>
       <c r="F4">
-        <v>-0.7051282051282054</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="G4">
-        <v>-1.2243006993007</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="H4">
-        <v>-1.093997668997669</v>
+        <v>-0.05720823798627006</v>
       </c>
       <c r="I4">
-        <v>-1.208857808857809</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="J4">
-        <v>-1.148018648018648</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="K4">
-        <v>-1.238927738927739</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="L4">
-        <v>-0.5051282051282051</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="M4">
-        <v>1.636072261072261</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="N4">
-        <v>0.4969114219114217</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="O4">
-        <v>0.2269813519813518</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="P4">
-        <v>0.3333333333333333</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="Q4">
-        <v>1.1</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R4">
-        <v>1.05</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="S4">
-        <v>0.5749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="T4">
-        <v>-1.3</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="U4">
-        <v>-1.325</v>
+        <v>-0.3115942028985508</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -11709,64 +14461,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.6677738927738931</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="C5">
-        <v>-0.381934731934732</v>
+        <v>-0.1211180124223603</v>
       </c>
       <c r="D5">
-        <v>1.31486013986014</v>
+        <v>0.05507246376811592</v>
       </c>
       <c r="E5">
-        <v>1.071328671328671</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="F5">
-        <v>0.1794871794871794</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="G5">
-        <v>-1.978146853146853</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="H5">
-        <v>-0.2664918414918416</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="I5">
-        <v>0.4903846153846154</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="J5">
-        <v>0.3006993006993006</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K5">
-        <v>-0.2447552447552448</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="L5">
-        <v>0.5936480186480185</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="M5">
-        <v>2.29493006993007</v>
+        <v>0.105072463768116</v>
       </c>
       <c r="N5">
-        <v>0.9115967365967363</v>
+        <v>0.06719367588932801</v>
       </c>
       <c r="O5">
-        <v>0.2269813519813521</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="P5">
-        <v>0.4487179487179487</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="Q5">
-        <v>1.180769230769231</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="R5">
-        <v>1.55</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="S5">
-        <v>0.825</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="T5">
-        <v>0.07499999999999996</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="U5">
-        <v>-0.425</v>
+        <v>-0.2282608695652174</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -11774,52 +14526,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.128205128205128</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="C6">
-        <v>0.01282051282051261</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="D6">
-        <v>-0.7051282051282054</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="E6">
-        <v>0.1794871794871794</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="F6">
-        <v>0.4743589743589735</v>
+        <v>0.1099744245524297</v>
       </c>
       <c r="G6">
-        <v>-0.8205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="H6">
-        <v>1.743589743589743</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="I6">
-        <v>1.230769230769231</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="J6">
-        <v>-0.3205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="K6">
-        <v>0.6282051282051281</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="L6">
-        <v>-1.602564102564103</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="M6">
-        <v>1.67948717948718</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="N6">
-        <v>-0.5384615384615385</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="O6">
-        <v>0.7820512820512822</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="P6">
-        <v>0.1153846153846155</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="Q6">
-        <v>0.3333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -11839,64 +14591,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.465268065268065</v>
+        <v>-0.1705685618729097</v>
       </c>
       <c r="C7">
-        <v>-0.2677738927738929</v>
+        <v>-0.01159420289855073</v>
       </c>
       <c r="D7">
-        <v>-1.2243006993007</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="E7">
-        <v>-1.978146853146853</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="F7">
-        <v>-0.8205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="G7">
-        <v>-1.770337995337996</v>
+        <v>-0.06916996047430829</v>
       </c>
       <c r="H7">
-        <v>-0.4947552447552449</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="I7">
-        <v>0.5545454545454545</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="J7">
-        <v>-0.4627039627039627</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="K7">
-        <v>-1.148018648018648</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="L7">
-        <v>-0.9871794871794873</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="M7">
-        <v>0.2083333333333333</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="N7">
-        <v>-0.8942307692307693</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="O7">
-        <v>-0.1101398601398602</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="P7">
-        <v>0.7365967365967365</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Q7">
-        <v>-0.3184731934731935</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="R7">
-        <v>-0.525</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="S7">
-        <v>0.25</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="T7">
-        <v>-0.4</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="U7">
-        <v>-0.275</v>
+        <v>-0.2782608695652174</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -11904,64 +14656,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.312470862470863</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="C8">
-        <v>-0.7245920745920746</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="D8">
-        <v>-1.093997668997669</v>
+        <v>-0.05720823798627006</v>
       </c>
       <c r="E8">
-        <v>-0.2664918414918416</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="F8">
-        <v>1.743589743589743</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="G8">
-        <v>-0.4947552447552449</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="H8">
-        <v>-1.201398601398602</v>
+        <v>-0.02826086956521739</v>
       </c>
       <c r="I8">
-        <v>-1.713170163170163</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="J8">
-        <v>-0.4265734265734265</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K8">
-        <v>-0.4568764568764569</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="L8">
-        <v>-0.7088578088578088</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="M8">
-        <v>1.593881118881119</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="N8">
-        <v>-0.763927738927739</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="O8">
-        <v>0.9009906759906761</v>
+        <v>0.05115089514066495</v>
       </c>
       <c r="P8">
-        <v>0.3333333333333333</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="Q8">
-        <v>0.6815268065268065</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="R8">
-        <v>-0.275</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="S8">
-        <v>-0.925</v>
+        <v>-0.1925465838509317</v>
       </c>
       <c r="T8">
-        <v>-2.325</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="U8">
-        <v>-0.9750000000000001</v>
+        <v>-0.2560386473429952</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -11969,64 +14721,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.850524475524475</v>
+        <v>-0.2474916387959866</v>
       </c>
       <c r="C9">
-        <v>1.252214452214452</v>
+        <v>0.1099744245524297</v>
       </c>
       <c r="D9">
-        <v>-1.208857808857809</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="E9">
-        <v>0.4903846153846154</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="F9">
-        <v>1.230769230769231</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="G9">
-        <v>0.5545454545454545</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="H9">
-        <v>-1.713170163170163</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="I9">
-        <v>-0.5861888111888114</v>
+        <v>-0.009510869565217406</v>
       </c>
       <c r="J9">
-        <v>0.2855477855477854</v>
+        <v>0.105072463768116</v>
       </c>
       <c r="K9">
-        <v>-0.1993006993006996</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="L9">
-        <v>0.1853146853146851</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="M9">
-        <v>1.096386946386946</v>
+        <v>0.04347826086956519</v>
       </c>
       <c r="N9">
-        <v>-0.9338578088578087</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="O9">
-        <v>0.5631118881118882</v>
+        <v>0.06020066889632103</v>
       </c>
       <c r="P9">
-        <v>-0.04545454545454564</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="Q9">
-        <v>1.550757575757576</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="R9">
-        <v>0.1499999999999999</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="S9">
-        <v>-0.8250000000000002</v>
+        <v>-0.1925465838509317</v>
       </c>
       <c r="T9">
-        <v>-2.35</v>
+        <v>-0.3671497584541063</v>
       </c>
       <c r="U9">
-        <v>-1.75</v>
+        <v>-0.3532608695652174</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -12034,52 +14786,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2797202797202798</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="C10">
-        <v>0.6433566433566433</v>
+        <v>0.06719367588932801</v>
       </c>
       <c r="D10">
-        <v>-1.148018648018648</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="E10">
-        <v>0.3006993006993006</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="F10">
-        <v>-0.3205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="G10">
-        <v>-0.4627039627039627</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="H10">
-        <v>-0.4265734265734265</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="I10">
-        <v>0.2855477855477854</v>
+        <v>0.105072463768116</v>
       </c>
       <c r="J10">
-        <v>0.1107226107226105</v>
+        <v>0.04805491990846678</v>
       </c>
       <c r="K10">
-        <v>-0.1993006993006996</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="L10">
-        <v>-0.2447552447552448</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="M10">
-        <v>0.8310023310023309</v>
+        <v>0.1581027667984189</v>
       </c>
       <c r="N10">
-        <v>-0.07808857808857816</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="O10">
-        <v>0.463869463869464</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="P10">
-        <v>-0.3088578088578089</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="Q10">
-        <v>1.048951048951049</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -12099,52 +14851,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04895104895104907</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="C11">
-        <v>-1.083916083916084</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="D11">
-        <v>-1.238927738927739</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="E11">
-        <v>-0.2447552447552448</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="F11">
-        <v>0.6282051282051281</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="G11">
-        <v>-1.148018648018648</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="H11">
-        <v>-0.4568764568764569</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="I11">
-        <v>-0.1993006993006996</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="J11">
-        <v>-0.1993006993006996</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="K11">
-        <v>-0.9895104895104898</v>
+        <v>-0.01672240802675584</v>
       </c>
       <c r="L11">
-        <v>-0.8205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="M11">
-        <v>0.7097902097902095</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="N11">
-        <v>-1.238927738927739</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="O11">
-        <v>-0.3846153846153846</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="P11">
-        <v>-0.7634032634032635</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="Q11">
-        <v>0.4545454545454546</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -12164,64 +14916,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.203088578088578</v>
+        <v>-0.01672240802675584</v>
       </c>
       <c r="C12">
-        <v>-0.8056526806526808</v>
+        <v>-0.09364548494983277</v>
       </c>
       <c r="D12">
-        <v>-0.5051282051282051</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="E12">
-        <v>0.5936480186480185</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="F12">
-        <v>-1.602564102564103</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="G12">
-        <v>-0.9871794871794873</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="H12">
-        <v>-0.7088578088578088</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="I12">
-        <v>0.1853146853146851</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="J12">
-        <v>-0.2447552447552448</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K12">
-        <v>-0.8205128205128207</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="L12">
-        <v>-0.8236013986013992</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="M12">
-        <v>0.7307692307692302</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="N12">
-        <v>0.7128205128205126</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="O12">
-        <v>-1.036421911421912</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="P12">
-        <v>-0.3333333333333335</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="Q12">
-        <v>0.4333333333333332</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R12">
-        <v>0.2</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="S12">
-        <v>0.975</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="T12">
-        <v>-0.125</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="U12">
-        <v>-0.4</v>
+        <v>-0.4782608695652174</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -12229,64 +14981,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.352738927738928</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="C13">
-        <v>2.484790209790209</v>
+        <v>0.1328502415458938</v>
       </c>
       <c r="D13">
-        <v>1.636072261072261</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="E13">
-        <v>2.29493006993007</v>
+        <v>0.105072463768116</v>
       </c>
       <c r="F13">
-        <v>1.67948717948718</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="G13">
-        <v>0.2083333333333333</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="H13">
-        <v>1.593881118881119</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="I13">
-        <v>1.096386946386946</v>
+        <v>0.04347826086956519</v>
       </c>
       <c r="J13">
-        <v>0.8310023310023309</v>
+        <v>0.1581027667984189</v>
       </c>
       <c r="K13">
-        <v>0.7097902097902095</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="L13">
-        <v>0.7307692307692302</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="M13">
-        <v>3.804195804195804</v>
+        <v>0.1270022883295194</v>
       </c>
       <c r="N13">
-        <v>2.232284382284382</v>
+        <v>0.1645962732919255</v>
       </c>
       <c r="O13">
-        <v>1.961072261072262</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="P13">
-        <v>0.1212121212121209</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="Q13">
-        <v>2.192424242424242</v>
+        <v>0.2217391304347825</v>
       </c>
       <c r="R13">
-        <v>1.65</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="S13">
-        <v>0.325</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="T13">
-        <v>0.1749999999999998</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="U13">
-        <v>-0.4500000000000001</v>
+        <v>-0.2782608695652174</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -12294,64 +15046,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.011072261072261</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="C14">
-        <v>1.160314685314686</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="D14">
-        <v>0.4969114219114217</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="E14">
-        <v>0.9115967365967363</v>
+        <v>0.06719367588932801</v>
       </c>
       <c r="F14">
-        <v>-0.5384615384615385</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="G14">
-        <v>-0.8942307692307693</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="H14">
-        <v>-0.763927738927739</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="I14">
-        <v>-0.9338578088578087</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="J14">
-        <v>-0.07808857808857816</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K14">
-        <v>-1.238927738927739</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="L14">
-        <v>0.7128205128205126</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="M14">
-        <v>2.232284382284382</v>
+        <v>0.1645962732919255</v>
       </c>
       <c r="N14">
-        <v>0.6534382284382283</v>
+        <v>0.001739130434782576</v>
       </c>
       <c r="O14">
-        <v>1.560314685314685</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="P14">
-        <v>-0.5967365967365967</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="Q14">
-        <v>1.654545454545455</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="R14">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="S14">
-        <v>0.2250000000000001</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="T14">
-        <v>-0.525</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="U14">
-        <v>-0.15</v>
+        <v>-0.1449275362318841</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -12359,64 +15111,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.173543123543124</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="C15">
-        <v>1.919638694638695</v>
+        <v>0.1328502415458938</v>
       </c>
       <c r="D15">
-        <v>0.2269813519813518</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="E15">
-        <v>0.2269813519813521</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="F15">
-        <v>0.7820512820512822</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="G15">
-        <v>-0.1101398601398602</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="H15">
-        <v>0.9009906759906761</v>
+        <v>0.05115089514066495</v>
       </c>
       <c r="I15">
-        <v>0.5631118881118882</v>
+        <v>0.06020066889632103</v>
       </c>
       <c r="J15">
-        <v>0.463869463869464</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="K15">
-        <v>-0.3846153846153846</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="L15">
-        <v>-1.036421911421912</v>
+        <v>-0.02371541501976288</v>
       </c>
       <c r="M15">
-        <v>1.961072261072262</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="N15">
-        <v>1.560314685314685</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="O15">
-        <v>0.9433566433566427</v>
+        <v>0.05507246376811592</v>
       </c>
       <c r="P15">
-        <v>1.121212121212121</v>
+        <v>0.3967391304347826</v>
       </c>
       <c r="Q15">
-        <v>0.9636363636363634</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R15">
-        <v>-0.05000000000000004</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="S15">
-        <v>0.04999999999999982</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="T15">
-        <v>-0.65</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="U15">
-        <v>-0.675</v>
+        <v>-0.3115942028985508</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -12424,52 +15176,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.287878787878788</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="C16">
-        <v>1.287878787878788</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D16">
-        <v>0.3333333333333333</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="E16">
-        <v>0.4487179487179487</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="F16">
-        <v>0.1153846153846155</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="G16">
-        <v>0.7365967365967365</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="H16">
-        <v>0.3333333333333333</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="I16">
-        <v>-0.04545454545454564</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="J16">
-        <v>-0.3088578088578089</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="K16">
-        <v>-0.7634032634032635</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="L16">
-        <v>-0.3333333333333335</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="M16">
-        <v>0.1212121212121209</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="N16">
-        <v>-0.5967365967365967</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="O16">
-        <v>1.121212121212121</v>
+        <v>0.3967391304347826</v>
       </c>
       <c r="P16">
-        <v>0.6911421911421911</v>
+        <v>0.2909698996655519</v>
       </c>
       <c r="Q16">
-        <v>1.409090909090909</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -12489,64 +15241,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.3184731934731935</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="C17">
-        <v>1.502738927738927</v>
+        <v>0.1581027667984189</v>
       </c>
       <c r="D17">
-        <v>1.1</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E17">
-        <v>1.180769230769231</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G17">
-        <v>-0.3184731934731935</v>
+        <v>-0.04968944099378886</v>
       </c>
       <c r="H17">
-        <v>0.6815268065268065</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="I17">
-        <v>1.550757575757576</v>
+        <v>0.2360248447204969</v>
       </c>
       <c r="J17">
-        <v>1.048951048951049</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="K17">
-        <v>0.4545454545454546</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L17">
-        <v>0.4333333333333332</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="M17">
-        <v>2.192424242424242</v>
+        <v>0.2217391304347825</v>
       </c>
       <c r="N17">
-        <v>1.654545454545455</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="O17">
-        <v>0.9636363636363634</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="P17">
-        <v>1.409090909090909</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="Q17">
-        <v>2.598951048951049</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="R17">
-        <v>1.175</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="S17">
-        <v>0.575</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="T17">
-        <v>0.6</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="U17">
-        <v>-0.625</v>
+        <v>-0.4782608695652174</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -12554,28 +15306,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.07500000000000029</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="C18">
-        <v>1.675</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="D18">
-        <v>1.05</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="E18">
-        <v>1.55</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.525</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="H18">
-        <v>-0.275</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="I18">
-        <v>0.1499999999999999</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -12584,34 +15336,34 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="M18">
-        <v>1.65</v>
+        <v>0.07729468599033817</v>
       </c>
       <c r="N18">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="O18">
-        <v>-0.05000000000000004</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.175</v>
+        <v>0.09316770186335399</v>
       </c>
       <c r="R18">
-        <v>1.2</v>
+        <v>-0.04076086956521741</v>
       </c>
       <c r="S18">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="T18">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="U18">
-        <v>-1.35</v>
+        <v>-0.3354037267080746</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -12619,28 +15371,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.575</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="C19">
-        <v>0.7250000000000001</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="D19">
-        <v>0.5749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="E19">
-        <v>0.825</v>
+        <v>-0.03381642512077299</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.25</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="H19">
-        <v>-0.925</v>
+        <v>-0.1925465838509317</v>
       </c>
       <c r="I19">
-        <v>-0.8250000000000002</v>
+        <v>-0.1925465838509317</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -12649,34 +15401,34 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.975</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="M19">
-        <v>0.325</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="N19">
-        <v>0.2250000000000001</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="O19">
-        <v>0.04999999999999982</v>
+        <v>-0.1032608695652174</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.575</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="R19">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="S19">
-        <v>-0.1250000000000002</v>
+        <v>-0.1253196930946291</v>
       </c>
       <c r="T19">
-        <v>-1.55</v>
+        <v>-0.3354037267080746</v>
       </c>
       <c r="U19">
-        <v>-1.075</v>
+        <v>-0.2560386473429952</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -12684,28 +15436,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.375</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="C20">
-        <v>-0.3250000000000002</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="D20">
-        <v>-1.3</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="E20">
-        <v>0.07499999999999996</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.4</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="H20">
-        <v>-2.325</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="I20">
-        <v>-2.35</v>
+        <v>-0.3671497584541063</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -12714,34 +15466,34 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.125</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="M20">
-        <v>0.1749999999999998</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="N20">
-        <v>-0.525</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="O20">
-        <v>-0.65</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.6</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R20">
-        <v>0.6749999999999998</v>
+        <v>0.02173913043478259</v>
       </c>
       <c r="S20">
-        <v>-1.55</v>
+        <v>-0.3354037267080746</v>
       </c>
       <c r="T20">
-        <v>-1.775</v>
+        <v>-0.2474916387959866</v>
       </c>
       <c r="U20">
-        <v>-1.25</v>
+        <v>-0.2560386473429952</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -12749,28 +15501,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.65</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="C21">
-        <v>0.825</v>
+        <v>-0.07826086956521738</v>
       </c>
       <c r="D21">
-        <v>-1.325</v>
+        <v>-0.3115942028985508</v>
       </c>
       <c r="E21">
-        <v>-0.425</v>
+        <v>-0.2282608695652174</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.275</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="H21">
-        <v>-0.9750000000000001</v>
+        <v>-0.2560386473429952</v>
       </c>
       <c r="I21">
-        <v>-1.75</v>
+        <v>-0.3532608695652174</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -12779,34 +15531,34 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.4</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="M21">
-        <v>-0.4500000000000001</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="N21">
-        <v>-0.15</v>
+        <v>-0.1449275362318841</v>
       </c>
       <c r="O21">
-        <v>-0.675</v>
+        <v>-0.3115942028985508</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-0.625</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="R21">
-        <v>-1.35</v>
+        <v>-0.3354037267080746</v>
       </c>
       <c r="S21">
-        <v>-1.075</v>
+        <v>-0.2560386473429952</v>
       </c>
       <c r="T21">
-        <v>-1.25</v>
+        <v>-0.2560386473429952</v>
       </c>
       <c r="U21">
-        <v>-1.925</v>
+        <v>-0.2782608695652174</v>
       </c>
     </row>
   </sheetData>
@@ -12889,64 +15641,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>-2.420104895104895</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>-1.196561771561772</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>-0.7664918414918418</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>-0.6677738927738931</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>-2.465268065268065</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>-1.312470862470863</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>-1.850524475524475</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0.2797202797202798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.04895104895104907</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>-1.203088578088578</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>1.352738927738928</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0.011072261072261</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>-2.173543123543124</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>-0.3184731934731935</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>-0.07500000000000029</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>-1.575</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>-1.375</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -12954,64 +15706,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>-1.196561771561772</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>1.074825174825174</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>-2.254370629370629</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>-0.381934731934732</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.01282051282051261</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>-0.2677738927738929</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>-0.7245920745920746</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>1.252214452214452</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>-1.083916083916084</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>-0.8056526806526808</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>2.484790209790209</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.160314685314686</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>1.919638694638695</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1.287878787878788</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1.502738927738927</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>1.675</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>-0.3250000000000002</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -13019,64 +15771,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>-0.7664918414918418</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>-2.254370629370629</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>-1.006177156177156</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>1.31486013986014</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-0.7051282051282054</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>-1.2243006993007</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>-1.093997668997669</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>-1.208857808857809</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>-1.148018648018648</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>-1.238927738927739</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>-0.5051282051282051</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.636072261072261</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>0.4969114219114217</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>0.2269813519813518</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>0.5749999999999998</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>-1.3</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>-1.325</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -13084,64 +15836,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>-0.6677738927738931</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>-0.381934731934732</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>1.31486013986014</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>1.071328671328671</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0.1794871794871794</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>-1.978146853146853</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>-0.2664918414918416</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3006993006993006</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>-0.2447552447552448</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>0.5936480186480185</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>2.29493006993007</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>0.9115967365967363</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>0.2269813519813521</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>1.180769230769231</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>0.825</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -13149,52 +15901,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.01282051282051261</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-0.7051282051282054</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0.1794871794871794</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0.4743589743589735</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>-0.8205128205128207</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1.743589743589743</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0.3205128205128207</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0.6282051282051281</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>-1.602564102564103</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1.67948717948718</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>0.7820512820512822</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1153846153846155</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -13214,64 +15966,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-2.465268065268065</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>-0.2677738927738929</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>-1.2243006993007</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>-1.978146853146853</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-0.8205128205128207</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>-1.770337995337996</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>-0.4947552447552449</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0.5545454545454545</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>-0.4627039627039627</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>-1.148018648018648</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>-0.9871794871794873</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>-0.8942307692307693</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>-0.1101398601398602</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7365967365967365</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>-0.3184731934731935</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>-0.525</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>-0.4</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -13279,64 +16031,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>-1.312470862470863</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>-0.7245920745920746</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>-1.093997668997669</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>-0.2664918414918416</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1.743589743589743</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>-0.4947552447552449</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>-1.201398601398602</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>-1.713170163170163</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>-0.4265734265734265</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>-0.4568764568764569</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>-0.7088578088578088</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>1.593881118881119</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>-0.763927738927739</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>0.9009906759906761</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.6815268065268065</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>-0.275</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-0.925</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-2.325</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -13344,64 +16096,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>-1.850524475524475</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1.252214452214452</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>-1.208857808857809</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>0.5545454545454545</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>-1.713170163170163</v>
       </c>
       <c r="I9">
-        <v>21</v>
+        <v>-0.5861888111888114</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0.2855477855477854</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>-0.1993006993006996</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>0.1853146853146851</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>1.096386946386946</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>-0.9338578088578087</v>
       </c>
       <c r="O9">
-        <v>15</v>
+        <v>0.5631118881118882</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>-0.04545454545454564</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1.550757575757576</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>-0.8250000000000002</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>-2.35</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -13409,52 +16161,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0.2797202797202798</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-1.148018648018648</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.3006993006993006</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-0.3205128205128207</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>-0.4627039627039627</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>-0.4265734265734265</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0.2855477855477854</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0.1107226107226105</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>-0.1993006993006996</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>-0.2447552447552448</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0.8310023310023309</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>-0.07808857808857816</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.463869463869464</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>-0.3088578088578089</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>1.048951048951049</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -13474,52 +16226,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.04895104895104907</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-1.083916083916084</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>-1.238927738927739</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>-0.2447552447552448</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0.6282051282051281</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>-1.148018648018648</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>-0.4568764568764569</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>-0.1993006993006996</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>-0.1993006993006996</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>-0.9895104895104898</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>-0.8205128205128207</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>0.7097902097902095</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>-1.238927738927739</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>-0.7634032634032635</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -13539,64 +16291,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>-1.203088578088578</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>-0.8056526806526808</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>-0.5051282051282051</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>0.5936480186480185</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>-1.602564102564103</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>-0.9871794871794873</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>-0.7088578088578088</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>0.1853146853146851</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>-0.2447552447552448</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>-0.8205128205128207</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>-0.8236013986013992</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>0.7307692307692302</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>0.7128205128205126</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>-1.036421911421912</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>0.4333333333333332</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>0.975</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>-0.125</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -13604,64 +16356,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>1.352738927738928</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2.484790209790209</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>1.636072261072261</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2.29493006993007</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1.67948717948718</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1.593881118881119</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>1.096386946386946</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0.8310023310023309</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>0.7097902097902095</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>0.7307692307692302</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>3.804195804195804</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>2.232284382284382</v>
       </c>
       <c r="O13">
-        <v>9</v>
+        <v>1.961072261072262</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>0.1212121212121209</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>2.192424242424242</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>0.325</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.1749999999999998</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>-0.4500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -13669,64 +16421,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0.011072261072261</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1.160314685314686</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>0.4969114219114217</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>0.9115967365967363</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>-0.8942307692307693</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>-0.763927738927739</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>-0.9338578088578087</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>-0.07808857808857816</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>-1.238927738927739</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>0.7128205128205126</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>2.232284382284382</v>
       </c>
       <c r="N14">
-        <v>16</v>
+        <v>0.6534382284382283</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>1.560314685314685</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>-0.5967365967365967</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>1.654545454545455</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>0.2250000000000001</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>-0.525</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -13734,64 +16486,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>-2.173543123543124</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>1.919638694638695</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>0.2269813519813518</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>0.2269813519813521</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>0.7820512820512822</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>-0.1101398601398602</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0.9009906759906761</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>0.5631118881118882</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.463869463869464</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>-1.036421911421912</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>1.961072261072262</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>1.560314685314685</v>
       </c>
       <c r="O15">
-        <v>20</v>
+        <v>0.9433566433566427</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>0.9636363636363634</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>-0.65</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>-0.675</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -13799,52 +16551,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1.287878787878788</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.1153846153846155</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.7365967365967365</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>-0.04545454545454564</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>-0.3088578088578089</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>-0.7634032634032635</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0.1212121212121209</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>-0.5967365967365967</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>0.6911421911421911</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1.409090909090909</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -13864,64 +16616,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>-0.3184731934731935</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1.502738927738927</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1.180769230769231</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>-0.3184731934731935</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6815268065268065</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1.550757575757576</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>1.048951048951049</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0.4333333333333332</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2.192424242424242</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>1.654545454545455</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>0.9636363636363634</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1.409090909090909</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>2.598951048951049</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>1.175</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>0.575</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -13929,28 +16681,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>-0.07500000000000029</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1.675</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>-0.525</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>-0.275</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -13959,34 +16711,34 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>1.175</v>
       </c>
       <c r="R18">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -13994,28 +16746,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-1.575</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0.5749999999999998</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0.825</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-0.925</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>-0.8250000000000002</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -14024,34 +16776,34 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>0.975</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>0.325</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>0.2250000000000001</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>0.575</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="S19">
-        <v>10</v>
+        <v>-0.1250000000000002</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>-1.55</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>-1.075</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -14059,28 +16811,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>-1.375</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>-0.3250000000000002</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>-1.3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>-0.4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-2.325</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>-2.35</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -14089,34 +16841,34 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>-0.125</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.1749999999999998</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>-0.525</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>-0.65</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>-1.55</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>-1.775</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -14124,28 +16876,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>-1.325</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>-0.425</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>-0.275</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-0.9750000000000001</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -14154,34 +16906,34 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>-0.4500000000000001</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>-0.15</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>-0.675</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>-0.625</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>-1.075</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>-1.925</v>
       </c>
     </row>
   </sheetData>
@@ -14264,61 +17016,61 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4814814814814815</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0.6923076923076923</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>0.4285714285714285</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.4375</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>0.5384615384615384</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>0.3571428571428572</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>0.3333333333333333</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -14329,61 +17081,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0.5833333333333334</v>
+        <v>7</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -14394,61 +17146,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.6296296296296297</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>0.6153846153846154</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>0.6923076923076923</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -14459,61 +17211,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0.6153846153846154</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0.6785714285714286</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -14524,49 +17276,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -14589,64 +17341,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.65</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>0.7777777777777778</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>0.5384615384615384</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -14654,55 +17406,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>0.6428571428571429</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -14719,64 +17471,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4285714285714285</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0.6923076923076923</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0.6363636363636364</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>0.5789473684210527</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>0.7647058823529411</v>
+        <v>13</v>
       </c>
       <c r="N9">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="O9">
-        <v>0.6</v>
+        <v>15</v>
       </c>
       <c r="P9">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -14784,13 +17536,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -14799,37 +17551,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -14849,49 +17601,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.8888888888888888</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -14914,61 +17666,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4375</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0.5789473684210527</v>
+        <v>11</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>0.5172413793103449</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>0.5294117647058824</v>
+        <v>9</v>
       </c>
       <c r="P12">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -14979,61 +17731,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5384615384615384</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0.7647058823529411</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>0.6785714285714286</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="P13">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -15044,61 +17796,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7777777777777778</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>0.7619047619047619</v>
+        <v>16</v>
       </c>
       <c r="O14">
-        <v>0.7777777777777778</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -15109,64 +17861,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3571428571428572</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.5833333333333334</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>0.5384615384615384</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>15</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5294117647058824</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>0.7777777777777778</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>0.5882352941176471</v>
+        <v>20</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="T15">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -15174,52 +17926,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="Q16">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -15239,64 +17991,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -15304,28 +18056,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3333333333333333</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -15334,31 +18086,31 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>0.6111111111111112</v>
+        <v>11</v>
       </c>
       <c r="S18">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -15369,28 +18121,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -15399,34 +18151,34 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>0.625</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -15434,28 +18186,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -15464,34 +18216,34 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="U20">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -15514,13 +18266,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -15538,25 +18290,25 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
